--- a/data/trans_dic/P48_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P48_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población donde la persona que más ingresos aporta al hogar tiene estudios estudios superiores o universitarios</t>
+          <t>Población donde la persona que más ingresos aporta al hogar tiene estudios estudios superiores o universitarios (tasa de respuesta: 97,07%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,51%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,34</t>
+          <t>0,0; 12,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,34</t>
+          <t>0,0; 10,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 9,98</t>
+          <t>0,0; 7,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 13,78</t>
+          <t>0,0; 10,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 7,97</t>
+          <t>0,0; 10,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 8,64</t>
+          <t>0,0; 9,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 6,01</t>
+          <t>0,0; 8,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 8,76</t>
+          <t>0,93; 20,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,34</t>
+          <t>0,0; 5,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 5,25</t>
+          <t>0,0; 5,25</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,72</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,23</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 14,14</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>18,86%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>8,56%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>8,27%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>16,76%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,18; 18,69</t>
+          <t>12,16; 24,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,78; 20,1</t>
+          <t>13,98; 30,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 12,4</t>
+          <t>5,31; 15,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 12,59</t>
+          <t>5,11; 15,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,26; 24,99</t>
+          <t>10,41; 23,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,88; 23,46</t>
+          <t>13,84; 25,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,24; 15,44</t>
+          <t>11,89; 23,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 14,65</t>
+          <t>5,15; 12,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,11; 20,74</t>
+          <t>4,5; 12,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,33; 20,47</t>
+          <t>11,63; 24,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 12,62</t>
+          <t>14,51; 22,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 11,81</t>
+          <t>14,43; 23,74</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5,74; 12,32</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 11,54</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12,75; 21,36</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>83,96%</t>
+          <t>81,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>77,41%</t>
+          <t>75,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>89,6%</t>
+          <t>89,37%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>89,15%</t>
+          <t>88,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>76,1%</t>
+          <t>83,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>69,88%</t>
+          <t>72,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>73,82%</t>
+          <t>66,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>73,41%</t>
+          <t>71,26%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>79,74%</t>
+          <t>71,44%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>73,29%</t>
+          <t>76,93%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>81,13%</t>
+          <t>76,56%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>80,83%</t>
+          <t>70,51%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>79,41%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>79,35%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>80,12%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>77,03; 88,96</t>
+          <t>70,3; 87,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>67,25; 84,24</t>
+          <t>64,45; 84,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,12; 93,49</t>
+          <t>81,89; 94,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,12; 93,35</t>
+          <t>81,07; 93,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>70,01; 81,34</t>
+          <t>75,92; 89,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,43; 76,08</t>
+          <t>65,15; 79,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>68,01; 79,31</t>
+          <t>58,32; 74,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>67,82; 79,31</t>
+          <t>64,45; 77,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>75,31; 83,39</t>
+          <t>64,19; 78,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>67,86; 78,07</t>
+          <t>69,8; 83,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>76,53; 84,62</t>
+          <t>70,92; 81,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>76,74; 84,42</t>
+          <t>63,21; 76,14</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>74,45; 84,34</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>74,18; 84,25</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>74,56; 84,77</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,7; 39,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,39; 36,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,56; 38,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,54; 36,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,56; 41,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,04; 37,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,96; 35,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,9; 34,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,78; 39,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,63; 35,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,8; 35,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,38; 34,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>39,56%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>37,72%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>38,34%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>36,47%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>36,81%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>39,19%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35,18%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>33,22%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>32,21%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>36,65%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>39,37%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>36,35%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>35,64%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>34,27%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>36,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>33,54; 45,75</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>30,66; 44,23</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>31,94; 44,93</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>29,51; 42,26</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>30,32; 43,55</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>34,97; 43,99</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>30,41; 40,84</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>28,66; 37,89</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>27,62; 36,7</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>31,27; 41,83</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>35,63; 43,11</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>32,22; 40,71</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>31,82; 39,28</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>30,26; 37,67</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>32,43; 40,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población donde la persona que más ingresos aporta al hogar tiene estudios estudios superiores o universitarios (tasa de respuesta: 97,07%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2159</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2423</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3365</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2179</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14836</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3365</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4158</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>4184</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>17258</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12522</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11705</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13534</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11861</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11678</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11472</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11003</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1906; 42121</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12644</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11131</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14717</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14475</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3269; 54096</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>62964</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>75794</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>32416</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>33417</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>79540</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>71439</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>69686</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>30119</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>28203</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>83573</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>134403</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>145480</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>62535</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>61620</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>163114</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>43516; 88936</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>51358; 110249</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>19029; 55749</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>19342; 58973</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>50803; 115223</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>53043; 96964</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>48063; 96465</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19206; 47800</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>16523; 44285</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>56409; 118359</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>107566; 168813</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>111288; 183115</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>41944; 90009</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>39228; 85985</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>124088; 207809</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>232588</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>201662</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>249643</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>241675</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>291249</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>259867</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>228464</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>243387</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>231977</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>294940</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>492455</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>430127</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>493031</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>473653</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>586189</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>200994; 251142</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>171193; 224028</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>228740; 263080</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>220690; 255085</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>264407; 313324</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>232785; 283078</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>200840; 255751</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>220128; 265335</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>208421; 254114</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>267577; 318586</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>456178; 523478</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>385598; 464476</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>462249; 523700</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>442798; 502952</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>545523; 620187</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>295552</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>277456</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>284038</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>277251</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>373212</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>334671</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>301751</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>275686</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>262206</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>393349</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>630223</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>579207</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>559724</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>539457</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>766561</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>250518; 341753</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>225567; 325377</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>236576; 332844</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>224333; 321241</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>307368; 441594</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>298646; 375657</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>260808; 350260</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>237835; 314430</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>224851; 298713</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>335611; 448952</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>570469; 690123</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>513380; 648651</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>499793; 616936</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>476375; 593035</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>676994; 852273</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
